--- a/data/trans_orig/P6607-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3035B27C-538D-47B1-8A2F-F89422F17303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97197517-E5B8-4570-A3D0-FE5D7EA2F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1BC4D05-D8C6-4CE5-923A-3A88A5A9DD02}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9E01E29-F3B9-4891-B4C9-6A81973AF32F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="682">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>38,19%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -106,28 +106,28 @@
     <t>7,99%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -136,28 +136,28 @@
     <t>27,05%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -166,28 +166,28 @@
     <t>26,77%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -199,1918 +199,1891 @@
     <t>39,87%</t>
   </si>
   <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>70,47%</t>
   </si>
   <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>52,7%</t>
   </si>
   <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>24,36%</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77565673-4D9D-4660-A00A-813EFA487188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF88D865-FE66-4E5F-94A2-D2D9DBFC256A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3232,7 +3205,7 @@
         <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>143</v>
@@ -3241,13 +3214,13 @@
         <v>148401</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3235,13 @@
         <v>77914</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3277,13 +3250,13 @@
         <v>14771</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -3292,13 +3265,13 @@
         <v>92685</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3286,13 @@
         <v>74112</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3328,13 +3301,13 @@
         <v>13227</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -3343,13 +3316,13 @@
         <v>87339</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,7 +3378,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3417,13 +3390,13 @@
         <v>156094</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>146</v>
@@ -3432,13 +3405,13 @@
         <v>170317</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>283</v>
@@ -3447,13 +3420,13 @@
         <v>326411</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3441,13 @@
         <v>82831</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3483,13 +3456,13 @@
         <v>29838</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
@@ -3498,13 +3471,13 @@
         <v>112669</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,7 +3492,7 @@
         <v>55064</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>144</v>
@@ -3591,7 +3564,7 @@
         <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -3600,13 +3573,13 @@
         <v>79814</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3635,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3674,13 +3647,13 @@
         <v>63498</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -3689,13 +3662,13 @@
         <v>47237</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
@@ -3704,13 +3677,13 @@
         <v>110735</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3698,13 @@
         <v>33076</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -3740,13 +3713,13 @@
         <v>11558</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -3755,10 +3728,10 @@
         <v>44635</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>178</v>
@@ -3797,7 +3770,7 @@
         <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3806,13 +3779,13 @@
         <v>32229</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,10 +4296,10 @@
         <v>237</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4314,13 @@
         <v>274563</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -4356,13 +4329,13 @@
         <v>53829</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>303</v>
@@ -4371,13 +4344,13 @@
         <v>328392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,7 +4406,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4455,7 +4428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC18EBB-04FE-404F-A57F-E401FDE84BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AAD525-D385-4904-9F9A-AF741F4F53AF}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4472,7 +4445,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4579,13 +4552,13 @@
         <v>23579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -4594,13 +4567,13 @@
         <v>62296</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -4609,13 +4582,13 @@
         <v>85874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,7 +4603,7 @@
         <v>29592</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>260</v>
@@ -4645,13 +4618,13 @@
         <v>14886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4660,13 +4633,13 @@
         <v>44477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4654,13 @@
         <v>7735</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4696,13 +4669,13 @@
         <v>8468</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4711,13 +4684,13 @@
         <v>16203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,10 +4705,10 @@
         <v>18204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>277</v>
@@ -4890,10 +4863,10 @@
         <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -4902,13 +4875,13 @@
         <v>47700</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -4917,13 +4890,13 @@
         <v>133546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4911,13 @@
         <v>66063</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4953,13 +4926,13 @@
         <v>19764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
@@ -4968,13 +4941,13 @@
         <v>85827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4962,13 @@
         <v>70735</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5004,13 +4977,13 @@
         <v>17198</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -5019,13 +4992,13 @@
         <v>87933</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>101</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5066,13 @@
         <v>182405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -5108,13 +5081,13 @@
         <v>220046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>399</v>
@@ -5123,13 +5096,13 @@
         <v>402450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5117,13 @@
         <v>103478</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -5159,13 +5132,13 @@
         <v>49148</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -5174,13 +5147,13 @@
         <v>152626</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5168,13 @@
         <v>79800</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5210,13 +5183,13 @@
         <v>24899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -5225,13 +5198,13 @@
         <v>104700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5219,13 @@
         <v>89652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5261,13 +5234,13 @@
         <v>22440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -5276,13 +5249,13 @@
         <v>112092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,7 +5311,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5350,13 +5323,13 @@
         <v>150583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -5365,13 +5338,13 @@
         <v>166792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>290</v>
@@ -5380,13 +5353,13 @@
         <v>317375</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5374,13 @@
         <v>89381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5416,13 +5389,13 @@
         <v>57680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -5431,13 +5404,13 @@
         <v>147061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5425,13 @@
         <v>54409</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5467,13 +5440,13 @@
         <v>5453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -5482,13 +5455,13 @@
         <v>59862</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>377</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5476,13 @@
         <v>69194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5518,13 +5491,13 @@
         <v>12195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -5533,13 +5506,13 @@
         <v>81390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5568,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5607,13 +5580,13 @@
         <v>64659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -5622,13 +5595,13 @@
         <v>76792</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M24" s="7">
         <v>122</v>
@@ -5637,13 +5610,13 @@
         <v>141451</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5631,13 @@
         <v>51459</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -5673,13 +5646,13 @@
         <v>22468</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5688,13 +5661,13 @@
         <v>73927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5682,13 @@
         <v>19965</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>408</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -5724,13 +5697,13 @@
         <v>5616</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5739,13 +5712,13 @@
         <v>25581</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5733,13 @@
         <v>28535</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>413</v>
+        <v>229</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -5775,13 +5748,13 @@
         <v>1003</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -5790,13 +5763,13 @@
         <v>29538</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,10 +5837,10 @@
         <v>3699</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -5882,7 +5855,7 @@
         <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -5894,10 +5867,10 @@
         <v>8889</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>199</v>
@@ -5915,13 +5888,13 @@
         <v>2286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5936,7 +5909,7 @@
         <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -5945,13 +5918,13 @@
         <v>2287</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +5960,7 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6002,7 +5975,7 @@
         <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,7 +6011,7 @@
         <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6053,7 +6026,7 @@
         <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6094,13 @@
         <v>545508</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H34" s="7">
         <v>704</v>
@@ -6136,13 +6109,13 @@
         <v>720170</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="M34" s="7">
         <v>1218</v>
@@ -6229,7 +6202,7 @@
         <v>450</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -6238,13 +6211,13 @@
         <v>64201</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>453</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>454</v>
+        <v>340</v>
       </c>
       <c r="M36" s="7">
         <v>274</v>
@@ -6253,13 +6226,13 @@
         <v>292173</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>456</v>
+        <v>113</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6247,13 @@
         <v>276320</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -6289,13 +6262,13 @@
         <v>59041</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M37" s="7">
         <v>316</v>
@@ -6304,13 +6277,13 @@
         <v>335362</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +6339,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6388,7 +6361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B048727A-843C-49E0-8E38-D12429DA7E07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8C6EBB-E0B9-42CB-9280-4F76CA16249F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6405,7 +6378,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6512,13 +6485,13 @@
         <v>6912</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -6527,13 +6500,13 @@
         <v>30172</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -6542,13 +6515,13 @@
         <v>37084</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6536,13 @@
         <v>11382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6578,13 +6551,13 @@
         <v>6313</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>34</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6593,13 +6566,13 @@
         <v>17694</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6587,13 @@
         <v>9732</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6629,13 +6602,13 @@
         <v>3317</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>488</v>
+        <v>420</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -6644,13 +6617,13 @@
         <v>13050</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6638,13 @@
         <v>9575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6680,13 +6653,13 @@
         <v>5515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -6695,13 +6668,13 @@
         <v>15090</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6742,13 @@
         <v>75314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -6784,13 +6757,13 @@
         <v>116984</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -6799,13 +6772,13 @@
         <v>192298</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6793,13 @@
         <v>33176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -6835,13 +6808,13 @@
         <v>26475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>72</v>
+        <v>511</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6850,13 +6823,13 @@
         <v>59650</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6844,13 @@
         <v>34794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6886,13 +6859,13 @@
         <v>7144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -6901,13 +6874,13 @@
         <v>41939</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>521</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +6895,13 @@
         <v>35118</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6937,13 +6910,13 @@
         <v>6850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -6952,13 +6925,13 @@
         <v>41968</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +6999,13 @@
         <v>109198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -7041,13 +7014,13 @@
         <v>110862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -7056,13 +7029,13 @@
         <v>220059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7050,13 @@
         <v>61337</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H15" s="7">
         <v>45</v>
@@ -7092,13 +7065,13 @@
         <v>30949</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>549</v>
+        <v>442</v>
       </c>
       <c r="M15" s="7">
         <v>105</v>
@@ -7107,13 +7080,13 @@
         <v>92286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7101,13 @@
         <v>32662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7143,13 +7116,13 @@
         <v>12921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -7158,13 +7131,13 @@
         <v>45582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7152,13 @@
         <v>41928</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>557</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7194,13 +7167,13 @@
         <v>15079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -7209,13 +7182,13 @@
         <v>57007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,7 +7244,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7283,13 +7256,13 @@
         <v>110031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
@@ -7298,13 +7271,13 @@
         <v>168885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>575</v>
+        <v>166</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -7313,13 +7286,13 @@
         <v>278917</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7307,13 @@
         <v>77851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -7349,13 +7322,13 @@
         <v>42749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="M20" s="7">
         <v>133</v>
@@ -7364,13 +7337,13 @@
         <v>120601</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7358,13 @@
         <v>37579</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -7400,13 +7373,13 @@
         <v>8842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
@@ -7415,13 +7388,13 @@
         <v>46421</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>242</v>
+        <v>590</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7409,13 @@
         <v>98437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -7451,13 +7424,13 @@
         <v>13719</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -7466,13 +7439,13 @@
         <v>112156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>602</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,7 +7501,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7540,13 +7513,13 @@
         <v>71637</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>438</v>
+        <v>602</v>
       </c>
       <c r="H24" s="7">
         <v>121</v>
@@ -7555,13 +7528,13 @@
         <v>69605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M24" s="7">
         <v>196</v>
@@ -7570,13 +7543,13 @@
         <v>141242</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>611</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7564,13 @@
         <v>33643</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -7606,13 +7579,13 @@
         <v>15659</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -7621,13 +7594,13 @@
         <v>49302</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7615,13 @@
         <v>24834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>621</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>623</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -7657,13 +7630,13 @@
         <v>5686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -7672,13 +7645,13 @@
         <v>30520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7666,13 @@
         <v>31998</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>631</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -7708,13 +7681,13 @@
         <v>6353</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="M27" s="7">
         <v>43</v>
@@ -7723,13 +7696,13 @@
         <v>38350</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,10 +7770,10 @@
         <v>7548</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -7812,10 +7785,10 @@
         <v>7956</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>199</v>
@@ -7827,13 +7800,13 @@
         <v>15504</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,7 +7827,7 @@
         <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -7863,13 +7836,13 @@
         <v>1229</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -7878,13 +7851,13 @@
         <v>1229</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,13 +7872,13 @@
         <v>693</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7920,7 +7893,7 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -7929,13 +7902,13 @@
         <v>693</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7923,13 @@
         <v>159</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>657</v>
+        <v>112</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7971,7 +7944,7 @@
         <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7980,13 +7953,13 @@
         <v>159</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8027,13 @@
         <v>380639</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="H34" s="7">
         <v>688</v>
@@ -8069,13 +8042,13 @@
         <v>504463</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="M34" s="7">
         <v>1035</v>
@@ -8084,13 +8057,13 @@
         <v>885102</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8078,13 @@
         <v>217389</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>451</v>
+        <v>660</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="H35" s="7">
         <v>159</v>
@@ -8120,13 +8093,13 @@
         <v>123373</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>673</v>
+        <v>457</v>
       </c>
       <c r="M35" s="7">
         <v>364</v>
@@ -8135,13 +8108,13 @@
         <v>340763</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,13 +8129,13 @@
         <v>140295</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -8171,13 +8144,13 @@
         <v>37910</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="M36" s="7">
         <v>174</v>
@@ -8186,13 +8159,13 @@
         <v>178204</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>683</v>
+        <v>113</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>562</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8207,13 +8180,13 @@
         <v>217216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="H37" s="7">
         <v>64</v>
@@ -8222,13 +8195,13 @@
         <v>47515</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>525</v>
+        <v>678</v>
       </c>
       <c r="M37" s="7">
         <v>221</v>
@@ -8237,13 +8210,13 @@
         <v>264731</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,7 +8272,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6607-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97197517-E5B8-4570-A3D0-FE5D7EA2F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF51FC0-C046-4BEC-B8C3-37A9415E3C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9E01E29-F3B9-4891-B4C9-6A81973AF32F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9AE89C34-C99B-4EF0-87DA-938E85C92B01}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="684">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>38,19%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -106,1959 +106,1968 @@
     <t>7,99%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
   </si>
   <si>
     <t>48,8%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
     <t>8,9%</t>
   </si>
   <si>
@@ -2078,9 +2087,6 @@
   </si>
   <si>
     <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
   </si>
   <si>
     <t>24,36%</t>
@@ -2495,7 +2501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF88D865-FE66-4E5F-94A2-D2D9DBFC256A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8B44C9-A740-4615-B2F1-F7C9B48D2C5F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3205,7 +3211,7 @@
         <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>143</v>
@@ -3214,13 +3220,13 @@
         <v>148401</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3241,13 @@
         <v>77914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3250,13 +3256,13 @@
         <v>14771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -3265,13 +3271,13 @@
         <v>92685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3292,13 @@
         <v>74112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3301,13 +3307,13 @@
         <v>13227</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -3316,13 +3322,13 @@
         <v>87339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3384,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3390,13 +3396,13 @@
         <v>156094</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>146</v>
@@ -3405,13 +3411,13 @@
         <v>170317</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>283</v>
@@ -3420,13 +3426,13 @@
         <v>326411</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3447,13 @@
         <v>82831</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3456,13 +3462,13 @@
         <v>29838</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>102</v>
@@ -3471,13 +3477,13 @@
         <v>112669</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3498,13 @@
         <v>55064</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -3507,13 +3513,13 @@
         <v>10032</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>56</v>
@@ -3522,13 +3528,13 @@
         <v>65096</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,10 +3549,10 @@
         <v>66852</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>154</v>
@@ -3564,7 +3570,7 @@
         <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -3782,10 +3788,10 @@
         <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,7 +4434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AAD525-D385-4904-9F9A-AF741F4F53AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABB4024-320C-4716-80F7-39A20024FD66}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4603,10 +4609,10 @@
         <v>29592</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>261</v>
@@ -4618,13 +4624,13 @@
         <v>14886</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4633,13 +4639,13 @@
         <v>44477</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4660,13 @@
         <v>7735</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4669,13 +4675,13 @@
         <v>8468</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4684,13 +4690,13 @@
         <v>16203</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4711,13 @@
         <v>18204</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4720,13 +4726,13 @@
         <v>6205</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4735,13 +4741,13 @@
         <v>24409</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4815,13 @@
         <v>120584</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H9" s="7">
         <v>193</v>
@@ -4824,13 +4830,13 @@
         <v>189054</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M9" s="7">
         <v>312</v>
@@ -4839,13 +4845,13 @@
         <v>309639</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,10 +4866,10 @@
         <v>85846</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>294</v>
@@ -4878,10 +4884,10 @@
         <v>295</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -4890,13 +4896,13 @@
         <v>133546</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4917,13 @@
         <v>66063</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>303</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4926,13 +4932,13 @@
         <v>19764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
@@ -4941,13 +4947,13 @@
         <v>85827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4968,13 @@
         <v>70735</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -4977,13 +4983,13 @@
         <v>17198</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -4992,13 +4998,13 @@
         <v>87933</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5072,13 @@
         <v>182405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -5081,13 +5087,13 @@
         <v>220046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>399</v>
@@ -5096,13 +5102,13 @@
         <v>402450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5123,13 @@
         <v>103478</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -5132,13 +5138,13 @@
         <v>49148</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -5147,13 +5153,13 @@
         <v>152626</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5174,13 @@
         <v>79800</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5183,13 +5189,13 @@
         <v>24899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -5198,13 +5204,13 @@
         <v>104700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5225,13 @@
         <v>89652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5234,13 +5240,13 @@
         <v>22440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -5249,13 +5255,13 @@
         <v>112092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,7 +5317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5323,13 +5329,13 @@
         <v>150583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -5338,13 +5344,13 @@
         <v>166792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>290</v>
@@ -5353,13 +5359,13 @@
         <v>317375</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5380,13 @@
         <v>89381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5389,13 +5395,13 @@
         <v>57680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -5404,13 +5410,13 @@
         <v>147061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5431,13 @@
         <v>54409</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>372</v>
+        <v>274</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5440,13 +5446,13 @@
         <v>5453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -5455,13 +5461,13 @@
         <v>59862</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>247</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5482,13 @@
         <v>69194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5491,13 +5497,13 @@
         <v>12195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -5506,13 +5512,13 @@
         <v>81390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5586,13 @@
         <v>64659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -5595,13 +5601,13 @@
         <v>76792</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M24" s="7">
         <v>122</v>
@@ -5610,13 +5616,13 @@
         <v>141451</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5637,13 @@
         <v>51459</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -5646,13 +5652,13 @@
         <v>22468</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5661,13 +5667,13 @@
         <v>73927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5688,13 @@
         <v>19965</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -5697,13 +5703,13 @@
         <v>5616</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5712,13 +5718,13 @@
         <v>25581</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5739,13 @@
         <v>28535</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -5748,13 +5754,13 @@
         <v>1003</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -5763,13 +5769,13 @@
         <v>29538</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,10 +5843,10 @@
         <v>3699</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -5855,7 +5861,7 @@
         <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -5867,10 +5873,10 @@
         <v>8889</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>199</v>
@@ -5888,13 +5894,13 @@
         <v>2286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>427</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5909,7 +5915,7 @@
         <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -5918,13 +5924,13 @@
         <v>2287</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,7 +5966,7 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5975,7 +5981,7 @@
         <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,7 +6017,7 @@
         <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6026,7 +6032,7 @@
         <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6100,13 @@
         <v>545508</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H34" s="7">
         <v>704</v>
@@ -6109,13 +6115,13 @@
         <v>720170</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="M34" s="7">
         <v>1218</v>
@@ -6124,13 +6130,13 @@
         <v>1265678</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6151,13 @@
         <v>362042</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H35" s="7">
         <v>185</v>
@@ -6160,13 +6166,13 @@
         <v>191882</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M35" s="7">
         <v>517</v>
@@ -6175,13 +6181,13 @@
         <v>553924</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6202,13 @@
         <v>227972</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>106</v>
+        <v>446</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -6211,13 +6217,13 @@
         <v>64201</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>340</v>
+        <v>449</v>
       </c>
       <c r="M36" s="7">
         <v>274</v>
@@ -6226,13 +6232,13 @@
         <v>292173</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>113</v>
+        <v>451</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6253,13 @@
         <v>276320</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>456</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -6262,13 +6268,13 @@
         <v>59041</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>460</v>
+        <v>301</v>
       </c>
       <c r="M37" s="7">
         <v>316</v>
@@ -6277,13 +6283,13 @@
         <v>335362</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,7 +6367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8C6EBB-E0B9-42CB-9280-4F76CA16249F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D18B26-DA97-422C-8CAF-65D047DEA802}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6378,7 +6384,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6485,13 +6491,13 @@
         <v>6912</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -6500,13 +6506,13 @@
         <v>30172</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -6515,13 +6521,13 @@
         <v>37084</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6542,13 @@
         <v>11382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6551,13 +6557,13 @@
         <v>6313</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6566,13 +6572,13 @@
         <v>17694</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6593,13 @@
         <v>9732</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6602,13 +6608,13 @@
         <v>3317</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -6617,13 +6623,13 @@
         <v>13050</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6644,13 @@
         <v>9575</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6653,13 +6659,13 @@
         <v>5515</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -6668,13 +6674,13 @@
         <v>15090</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6748,13 @@
         <v>75314</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -6757,13 +6763,13 @@
         <v>116984</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -6772,13 +6778,13 @@
         <v>192298</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6799,13 @@
         <v>33176</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -6808,13 +6814,13 @@
         <v>26475</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6823,13 +6829,13 @@
         <v>59650</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6850,13 @@
         <v>34794</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6859,13 +6865,13 @@
         <v>7144</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -6874,13 +6880,13 @@
         <v>41939</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6901,13 @@
         <v>35118</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>525</v>
+        <v>100</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6910,13 +6916,13 @@
         <v>6850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -6925,13 +6931,13 @@
         <v>41968</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>531</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +7005,13 @@
         <v>109198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -7014,13 +7020,13 @@
         <v>110862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -7029,13 +7035,13 @@
         <v>220059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7056,13 @@
         <v>61337</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H15" s="7">
         <v>45</v>
@@ -7065,13 +7071,13 @@
         <v>30949</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>442</v>
+        <v>542</v>
       </c>
       <c r="M15" s="7">
         <v>105</v>
@@ -7080,13 +7086,13 @@
         <v>92286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7107,13 @@
         <v>32662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7116,13 +7122,13 @@
         <v>12921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -7131,13 +7137,13 @@
         <v>45582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7158,13 @@
         <v>41928</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>559</v>
+        <v>143</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7167,13 +7173,13 @@
         <v>15079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -7182,13 +7188,13 @@
         <v>57007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,7 +7250,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7256,13 +7262,13 @@
         <v>110031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
@@ -7271,13 +7277,13 @@
         <v>168885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -7286,13 +7292,13 @@
         <v>278917</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7313,13 @@
         <v>77851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -7322,13 +7328,13 @@
         <v>42749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M20" s="7">
         <v>133</v>
@@ -7337,13 +7343,13 @@
         <v>120601</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7364,13 @@
         <v>37579</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -7373,13 +7379,13 @@
         <v>8842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
@@ -7388,13 +7394,13 @@
         <v>46421</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>591</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7415,13 @@
         <v>98437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -7424,13 +7430,13 @@
         <v>13719</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>596</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -7439,13 +7445,13 @@
         <v>112156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>593</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7519,13 @@
         <v>71637</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H24" s="7">
         <v>121</v>
@@ -7528,13 +7534,13 @@
         <v>69605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M24" s="7">
         <v>196</v>
@@ -7543,13 +7549,13 @@
         <v>141242</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>59</v>
+        <v>603</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7570,13 @@
         <v>33643</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -7579,13 +7585,13 @@
         <v>15659</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>608</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>609</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -7594,13 +7600,13 @@
         <v>49302</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7621,13 @@
         <v>24834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>614</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -7630,13 +7636,13 @@
         <v>5686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -7645,13 +7651,13 @@
         <v>30520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7672,13 @@
         <v>31998</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>624</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -7681,13 +7687,13 @@
         <v>6353</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M27" s="7">
         <v>43</v>
@@ -7696,13 +7702,13 @@
         <v>38350</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,10 +7776,10 @@
         <v>7548</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -7785,10 +7791,10 @@
         <v>7956</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>199</v>
@@ -7800,13 +7806,13 @@
         <v>15504</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,7 +7833,7 @@
         <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -7836,13 +7842,13 @@
         <v>1229</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -7851,13 +7857,13 @@
         <v>1229</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,13 +7878,13 @@
         <v>693</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7893,7 +7899,7 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -7902,13 +7908,13 @@
         <v>693</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7923,13 +7929,13 @@
         <v>159</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7944,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7953,13 +7959,13 @@
         <v>159</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,13 +8033,13 @@
         <v>380639</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H34" s="7">
         <v>688</v>
@@ -8042,13 +8048,13 @@
         <v>504463</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M34" s="7">
         <v>1035</v>
@@ -8057,13 +8063,13 @@
         <v>885102</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,13 +8084,13 @@
         <v>217389</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H35" s="7">
         <v>159</v>
@@ -8093,13 +8099,13 @@
         <v>123373</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>457</v>
+        <v>616</v>
       </c>
       <c r="M35" s="7">
         <v>364</v>
@@ -8108,13 +8114,13 @@
         <v>340763</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8135,13 @@
         <v>140295</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -8144,13 +8150,13 @@
         <v>37910</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="M36" s="7">
         <v>174</v>
@@ -8159,13 +8165,13 @@
         <v>178204</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>113</v>
+        <v>675</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8186,13 @@
         <v>217216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="H37" s="7">
         <v>64</v>
@@ -8195,13 +8201,13 @@
         <v>47515</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="M37" s="7">
         <v>221</v>
@@ -8210,13 +8216,13 @@
         <v>264731</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>680</v>
+        <v>65</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6607-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF51FC0-C046-4BEC-B8C3-37A9415E3C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52198A38-6653-4991-A850-30EA0BBB176E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9AE89C34-C99B-4EF0-87DA-938E85C92B01}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05993ACE-0EB5-4E9C-A2F1-4767F263CA72}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="691">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>38,19%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -106,1990 +106,2011 @@
     <t>7,99%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>24,36%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8B44C9-A740-4615-B2F1-F7C9B48D2C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A7C47-086A-4E9C-AD8C-DFFD6EDF4619}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3498,13 +3519,13 @@
         <v>55064</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -3513,13 +3534,13 @@
         <v>10032</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>56</v>
@@ -3528,13 +3549,13 @@
         <v>65096</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,10 +3570,10 @@
         <v>66852</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>154</v>
@@ -3570,7 +3591,7 @@
         <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -3579,13 +3600,13 @@
         <v>79814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,7 +3662,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3653,13 +3674,13 @@
         <v>63498</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -3668,13 +3689,13 @@
         <v>47237</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>103</v>
@@ -3683,13 +3704,13 @@
         <v>110735</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3725,13 @@
         <v>33076</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -3719,13 +3740,13 @@
         <v>11558</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -3734,10 +3755,10 @@
         <v>44635</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>178</v>
@@ -3776,7 +3797,7 @@
         <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3785,10 +3806,10 @@
         <v>32229</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>186</v>
@@ -4302,10 +4323,10 @@
         <v>237</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4341,13 @@
         <v>274563</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -4335,13 +4356,13 @@
         <v>53829</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>303</v>
@@ -4350,13 +4371,13 @@
         <v>328392</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4433,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +4455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABB4024-320C-4716-80F7-39A20024FD66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B3A8F-D001-4DFE-A725-409DD25C8A8E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4451,7 +4472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4558,13 +4579,13 @@
         <v>23579</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -4573,13 +4594,13 @@
         <v>62296</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -4588,13 +4609,13 @@
         <v>85874</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,10 +4630,10 @@
         <v>29592</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>261</v>
@@ -4624,7 +4645,7 @@
         <v>14886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>262</v>
@@ -4660,13 +4681,13 @@
         <v>7735</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4675,7 +4696,7 @@
         <v>8468</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>270</v>
@@ -4714,10 +4735,10 @@
         <v>275</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4726,13 +4747,13 @@
         <v>6205</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4741,13 +4762,13 @@
         <v>24409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4836,13 @@
         <v>120584</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H9" s="7">
         <v>193</v>
@@ -4830,13 +4851,13 @@
         <v>189054</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M9" s="7">
         <v>312</v>
@@ -4845,13 +4866,13 @@
         <v>309639</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4887,13 @@
         <v>85846</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -4881,13 +4902,13 @@
         <v>47700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -4896,13 +4917,13 @@
         <v>133546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,10 +4941,10 @@
         <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4932,13 +4953,13 @@
         <v>19764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
@@ -4947,13 +4968,13 @@
         <v>85827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4989,13 @@
         <v>70735</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -4983,13 +5004,13 @@
         <v>17198</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -4998,13 +5019,13 @@
         <v>87933</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>314</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5093,13 @@
         <v>182405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -5087,13 +5108,13 @@
         <v>220046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>399</v>
@@ -5102,13 +5123,13 @@
         <v>402450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5144,13 @@
         <v>103478</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -5138,13 +5159,13 @@
         <v>49148</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -5153,13 +5174,13 @@
         <v>152626</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5195,13 @@
         <v>79800</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>335</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5189,13 +5210,13 @@
         <v>24899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -5204,13 +5225,13 @@
         <v>104700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5246,13 @@
         <v>89652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5240,13 +5261,13 @@
         <v>22440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -5255,13 +5276,13 @@
         <v>112092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5350,13 @@
         <v>150583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -5344,13 +5365,13 @@
         <v>166792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>290</v>
@@ -5359,13 +5380,13 @@
         <v>317375</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5401,13 @@
         <v>89381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5395,13 +5416,13 @@
         <v>57680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -5410,13 +5431,13 @@
         <v>147061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5452,13 @@
         <v>54409</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5446,13 +5467,13 @@
         <v>5453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -5461,13 +5482,13 @@
         <v>59862</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5503,13 @@
         <v>69194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5497,13 +5518,13 @@
         <v>12195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -5512,13 +5533,13 @@
         <v>81390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,7 +5595,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5586,13 +5607,13 @@
         <v>64659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -5601,13 +5622,13 @@
         <v>76792</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M24" s="7">
         <v>122</v>
@@ -5616,13 +5637,13 @@
         <v>141451</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5658,13 @@
         <v>51459</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -5652,13 +5673,13 @@
         <v>22468</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5667,13 +5688,13 @@
         <v>73927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5709,13 @@
         <v>19965</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>402</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -5703,13 +5724,13 @@
         <v>5616</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5718,13 +5739,13 @@
         <v>25581</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5760,13 @@
         <v>28535</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -5754,13 +5775,13 @@
         <v>1003</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -5769,13 +5790,13 @@
         <v>29538</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,10 +5864,10 @@
         <v>3699</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -5861,7 +5882,7 @@
         <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -5873,10 +5894,10 @@
         <v>8889</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>199</v>
@@ -5894,13 +5915,13 @@
         <v>2286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5915,7 +5936,7 @@
         <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -5924,13 +5945,13 @@
         <v>2287</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,7 +5987,7 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5981,7 +6002,7 @@
         <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6038,7 @@
         <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6032,7 +6053,7 @@
         <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6121,13 @@
         <v>545508</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H34" s="7">
         <v>704</v>
@@ -6115,13 +6136,13 @@
         <v>720170</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M34" s="7">
         <v>1218</v>
@@ -6130,13 +6151,13 @@
         <v>1265678</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6172,13 @@
         <v>362042</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H35" s="7">
         <v>185</v>
@@ -6166,13 +6187,13 @@
         <v>191882</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M35" s="7">
         <v>517</v>
@@ -6181,13 +6202,13 @@
         <v>553924</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6223,13 @@
         <v>227972</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -6217,13 +6238,13 @@
         <v>64201</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M36" s="7">
         <v>274</v>
@@ -6232,13 +6253,13 @@
         <v>292173</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6274,13 @@
         <v>276320</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>459</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -6268,13 +6289,13 @@
         <v>59041</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>301</v>
+        <v>463</v>
       </c>
       <c r="M37" s="7">
         <v>316</v>
@@ -6283,13 +6304,13 @@
         <v>335362</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,7 +6366,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6367,7 +6388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D18B26-DA97-422C-8CAF-65D047DEA802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290BD222-30F7-49A6-A3E3-B09C7C8AC8C7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6384,7 +6405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6491,13 +6512,13 @@
         <v>6912</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -6506,13 +6527,13 @@
         <v>30172</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -6521,13 +6542,13 @@
         <v>37084</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6563,13 @@
         <v>11382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6557,13 +6578,13 @@
         <v>6313</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>473</v>
+        <v>34</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6572,13 +6593,13 @@
         <v>17694</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6614,13 @@
         <v>9732</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6608,13 +6629,13 @@
         <v>3317</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -6623,13 +6644,13 @@
         <v>13050</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6665,13 @@
         <v>9575</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6659,13 +6680,13 @@
         <v>5515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -6674,13 +6695,13 @@
         <v>15090</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6769,13 @@
         <v>75314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -6763,13 +6784,13 @@
         <v>116984</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -6778,13 +6799,13 @@
         <v>192298</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6820,13 @@
         <v>33176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -6814,13 +6835,13 @@
         <v>26475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>509</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -6829,13 +6850,13 @@
         <v>59650</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6871,13 @@
         <v>34794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6865,13 +6886,13 @@
         <v>7144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -6880,13 +6901,13 @@
         <v>41939</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>519</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6922,13 @@
         <v>35118</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>100</v>
+        <v>528</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6916,13 +6937,13 @@
         <v>6850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -6931,13 +6952,13 @@
         <v>41968</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +7026,13 @@
         <v>109198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -7020,13 +7041,13 @@
         <v>110862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -7035,13 +7056,13 @@
         <v>220059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7077,13 @@
         <v>61337</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="H15" s="7">
         <v>45</v>
@@ -7071,13 +7092,13 @@
         <v>30949</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M15" s="7">
         <v>105</v>
@@ -7086,13 +7107,13 @@
         <v>92286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7128,13 @@
         <v>32662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7122,13 +7143,13 @@
         <v>12921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -7137,13 +7158,13 @@
         <v>45582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7179,13 @@
         <v>41928</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>563</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7173,13 +7194,13 @@
         <v>15079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -7188,13 +7209,13 @@
         <v>57007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7283,13 @@
         <v>110031</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
@@ -7277,13 +7298,13 @@
         <v>168885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="M19" s="7">
         <v>365</v>
@@ -7292,13 +7313,13 @@
         <v>278917</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7334,13 @@
         <v>77851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>580</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -7328,13 +7349,13 @@
         <v>42749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="M20" s="7">
         <v>133</v>
@@ -7343,13 +7364,13 @@
         <v>120601</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7385,13 @@
         <v>37579</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -7379,13 +7400,13 @@
         <v>8842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
@@ -7394,13 +7415,13 @@
         <v>46421</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>587</v>
+        <v>242</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>305</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7436,13 @@
         <v>98437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -7430,13 +7451,13 @@
         <v>13719</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -7445,13 +7466,13 @@
         <v>112156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,7 +7528,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7519,13 +7540,13 @@
         <v>71637</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>598</v>
+        <v>438</v>
       </c>
       <c r="H24" s="7">
         <v>121</v>
@@ -7534,13 +7555,13 @@
         <v>69605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="M24" s="7">
         <v>196</v>
@@ -7549,13 +7570,13 @@
         <v>141242</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7591,13 @@
         <v>33643</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -7585,13 +7606,13 @@
         <v>15659</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>609</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -7600,13 +7621,13 @@
         <v>49302</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7642,13 @@
         <v>24834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -7636,13 +7657,13 @@
         <v>5686</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -7651,13 +7672,13 @@
         <v>30520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7693,13 @@
         <v>31998</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -7687,13 +7708,13 @@
         <v>6353</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="M27" s="7">
         <v>43</v>
@@ -7702,13 +7723,13 @@
         <v>38350</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,10 +7797,10 @@
         <v>7548</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -7791,10 +7812,10 @@
         <v>7956</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>199</v>
@@ -7806,13 +7827,13 @@
         <v>15504</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,7 +7854,7 @@
         <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -7842,13 +7863,13 @@
         <v>1229</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -7857,13 +7878,13 @@
         <v>1229</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,13 +7899,13 @@
         <v>693</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7899,7 +7920,7 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -7908,13 +7929,13 @@
         <v>693</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,13 +7950,13 @@
         <v>159</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>113</v>
+        <v>657</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7950,7 +7971,7 @@
         <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7959,13 +7980,13 @@
         <v>159</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,13 +8054,13 @@
         <v>380639</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="H34" s="7">
         <v>688</v>
@@ -8048,13 +8069,13 @@
         <v>504463</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="M34" s="7">
         <v>1035</v>
@@ -8063,13 +8084,13 @@
         <v>885102</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8105,13 @@
         <v>217389</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>662</v>
+        <v>451</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="H35" s="7">
         <v>159</v>
@@ -8099,13 +8120,13 @@
         <v>123373</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>616</v>
+        <v>673</v>
       </c>
       <c r="M35" s="7">
         <v>364</v>
@@ -8114,13 +8135,13 @@
         <v>340763</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8135,13 +8156,13 @@
         <v>140295</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="H36" s="7">
         <v>50</v>
@@ -8150,13 +8171,13 @@
         <v>37910</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="M36" s="7">
         <v>174</v>
@@ -8165,13 +8186,13 @@
         <v>178204</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>677</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8207,13 @@
         <v>217216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="H37" s="7">
         <v>64</v>
@@ -8201,13 +8222,13 @@
         <v>47515</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="M37" s="7">
         <v>221</v>
@@ -8216,13 +8237,13 @@
         <v>264731</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>65</v>
+        <v>689</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8278,7 +8299,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6607-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52198A38-6653-4991-A850-30EA0BBB176E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1B1DBD-23E0-4078-990B-DE22046D75A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05993ACE-0EB5-4E9C-A2F1-4767F263CA72}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C9158F66-BC62-48F3-A7A9-97D503E171F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="685">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -193,7 +193,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>39,87%</t>
@@ -304,7 +304,7 @@
     <t>17,97%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>40,78%</t>
@@ -415,7 +415,7 @@
     <t>15,26%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>43,26%</t>
@@ -523,7 +523,7 @@
     <t>16,76%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>40,35%</t>
@@ -628,7 +628,7 @@
     <t>22,82%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>33,14%</t>
@@ -679,6 +679,12 @@
     <t>26,42%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>40,95%</t>
   </si>
   <si>
@@ -1303,814 +1309,790 @@
     <t>15,71%</t>
   </si>
   <si>
-    <t>61,8%</t>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
 </sst>
 </file>
@@ -2522,8 +2504,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A7C47-086A-4E9C-AD8C-DFFD6EDF4619}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC7FA4B-7622-4E10-A6D6-5D276E9DF2D9}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4176,55 +4158,49 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>541</v>
-      </c>
-      <c r="D34" s="7">
-        <v>578236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>214</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
-        <v>639</v>
-      </c>
-      <c r="I34" s="7">
-        <v>690546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
-        <v>1180</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1268782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,49 +4209,43 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>284</v>
-      </c>
-      <c r="D35" s="7">
-        <v>298429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H35" s="7">
-        <v>141</v>
-      </c>
-      <c r="I35" s="7">
-        <v>151411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
-        <v>425</v>
-      </c>
-      <c r="N35" s="7">
-        <v>449840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,49 +4254,43 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>248</v>
-      </c>
-      <c r="D36" s="7">
-        <v>260847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="H36" s="7">
-        <v>46</v>
-      </c>
-      <c r="I36" s="7">
-        <v>50704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
-        <v>294</v>
-      </c>
-      <c r="N36" s="7">
-        <v>311551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,49 +4299,43 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>255</v>
-      </c>
-      <c r="D37" s="7">
-        <v>274563</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="H37" s="7">
-        <v>48</v>
-      </c>
-      <c r="I37" s="7">
-        <v>53829</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="M37" s="7">
-        <v>303</v>
-      </c>
-      <c r="N37" s="7">
-        <v>328392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,63 +4344,315 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>541</v>
+      </c>
+      <c r="D39" s="7">
+        <v>578236</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" s="7">
+        <v>639</v>
+      </c>
+      <c r="I39" s="7">
+        <v>690546</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1180</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1268782</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>284</v>
+      </c>
+      <c r="D40" s="7">
+        <v>298429</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" s="7">
+        <v>141</v>
+      </c>
+      <c r="I40" s="7">
+        <v>151411</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M40" s="7">
+        <v>425</v>
+      </c>
+      <c r="N40" s="7">
+        <v>449840</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>248</v>
+      </c>
+      <c r="D41" s="7">
+        <v>260847</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H41" s="7">
+        <v>46</v>
+      </c>
+      <c r="I41" s="7">
+        <v>50704</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M41" s="7">
+        <v>294</v>
+      </c>
+      <c r="N41" s="7">
+        <v>311551</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>255</v>
+      </c>
+      <c r="D42" s="7">
+        <v>274563</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="7">
+        <v>48</v>
+      </c>
+      <c r="I42" s="7">
+        <v>53829</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M42" s="7">
+        <v>303</v>
+      </c>
+      <c r="N42" s="7">
+        <v>328392</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1328</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1412074</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>874</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>946490</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2202</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2358564</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>248</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4455,8 +4665,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B3A8F-D001-4DFE-A725-409DD25C8A8E}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5401F054-AD1A-4690-BC12-4218DB5DB4B4}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4472,7 +4682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4579,13 +4789,13 @@
         <v>23579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>64</v>
@@ -4594,13 +4804,13 @@
         <v>62296</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -4609,13 +4819,13 @@
         <v>85874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4840,13 @@
         <v>29592</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -4648,10 +4858,10 @@
         <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4660,13 +4870,13 @@
         <v>44477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,10 +4894,10 @@
         <v>123</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4696,13 +4906,13 @@
         <v>8468</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4711,13 +4921,13 @@
         <v>16203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4942,13 @@
         <v>18204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4747,13 +4957,13 @@
         <v>6205</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4762,13 +4972,13 @@
         <v>24409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +5046,13 @@
         <v>120584</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H9" s="7">
         <v>193</v>
@@ -4851,13 +5061,13 @@
         <v>189054</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M9" s="7">
         <v>312</v>
@@ -4866,13 +5076,13 @@
         <v>309639</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +5097,13 @@
         <v>85846</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -4902,13 +5112,13 @@
         <v>47700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -4920,10 +5130,10 @@
         <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +5148,13 @@
         <v>66063</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4953,13 +5163,13 @@
         <v>19764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
@@ -4968,13 +5178,13 @@
         <v>85827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5199,13 @@
         <v>70735</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5004,13 +5214,13 @@
         <v>17198</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -5019,10 +5229,10 @@
         <v>87933</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>101</v>
@@ -5093,13 +5303,13 @@
         <v>182405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -5108,13 +5318,13 @@
         <v>220046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>399</v>
@@ -5123,13 +5333,13 @@
         <v>402450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5354,13 @@
         <v>103478</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -5159,13 +5369,13 @@
         <v>49148</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -5174,13 +5384,13 @@
         <v>152626</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5405,13 @@
         <v>79800</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5210,13 +5420,13 @@
         <v>24899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -5225,13 +5435,13 @@
         <v>104700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5456,13 @@
         <v>89652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5261,13 +5471,13 @@
         <v>22440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -5276,13 +5486,13 @@
         <v>112092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5560,13 @@
         <v>150583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
@@ -5365,13 +5575,13 @@
         <v>166792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>290</v>
@@ -5380,13 +5590,13 @@
         <v>317375</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5611,13 @@
         <v>89381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5416,13 +5626,13 @@
         <v>57680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -5431,13 +5641,13 @@
         <v>147061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5662,13 @@
         <v>54409</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5467,13 +5677,13 @@
         <v>5453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -5482,13 +5692,13 @@
         <v>59862</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5713,13 @@
         <v>69194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -5518,13 +5728,13 @@
         <v>12195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -5533,13 +5743,13 @@
         <v>81390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5817,13 @@
         <v>64659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -5622,13 +5832,13 @@
         <v>76792</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M24" s="7">
         <v>122</v>
@@ -5637,13 +5847,13 @@
         <v>141451</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5868,13 @@
         <v>51459</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -5673,13 +5883,13 @@
         <v>22468</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5688,13 +5898,13 @@
         <v>73927</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,10 +5919,10 @@
         <v>19965</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>87</v>
@@ -5724,13 +5934,13 @@
         <v>5616</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5739,13 +5949,13 @@
         <v>25581</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5970,13 @@
         <v>28535</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -5775,13 +5985,13 @@
         <v>1003</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -5790,13 +6000,13 @@
         <v>29538</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,16 +6068,16 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>3699</v>
+        <v>2904</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -5882,22 +6092,22 @@
         <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="M29" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N29" s="7">
-        <v>8889</v>
+        <v>8094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>199</v>
@@ -5915,13 +6125,13 @@
         <v>2286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5936,7 +6146,7 @@
         <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -5945,13 +6155,13 @@
         <v>2287</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,7 +6182,7 @@
         <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>430</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5987,7 +6197,7 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6002,7 +6212,7 @@
         <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>431</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,7 +6233,7 @@
         <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>430</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6038,7 +6248,7 @@
         <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6053,7 +6263,7 @@
         <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,10 +6272,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -6092,10 +6302,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N33" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -6109,55 +6319,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>545508</v>
+        <v>795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>432</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>433</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>434</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7">
-        <v>704</v>
-      </c>
-      <c r="I34" s="7">
-        <v>720170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>435</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>436</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>437</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
-        <v>1218</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>1265678</v>
+        <v>795</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>438</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>440</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,49 +6374,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>362042</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>441</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>442</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="H35" s="7">
-        <v>185</v>
-      </c>
-      <c r="I35" s="7">
-        <v>191882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>444</v>
+        <v>214</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>445</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>553924</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>447</v>
+        <v>210</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,49 +6423,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="7">
-        <v>227972</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>450</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="H36" s="7">
-        <v>64</v>
-      </c>
-      <c r="I36" s="7">
-        <v>64201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>452</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>453</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>454</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>292173</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>455</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>456</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,49 +6472,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>276320</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>458</v>
+        <v>198</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>459</v>
+        <v>210</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="H37" s="7">
-        <v>58</v>
-      </c>
-      <c r="I37" s="7">
-        <v>59041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>461</v>
+        <v>214</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>462</v>
+        <v>214</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>463</v>
+        <v>214</v>
       </c>
       <c r="M37" s="7">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>335362</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>464</v>
+        <v>198</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>465</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,63 +6521,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>795</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>795</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>514</v>
+      </c>
+      <c r="D39" s="7">
+        <v>545508</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H39" s="7">
+        <v>704</v>
+      </c>
+      <c r="I39" s="7">
+        <v>720170</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1218</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1265678</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>332</v>
+      </c>
+      <c r="D40" s="7">
+        <v>362042</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H40" s="7">
+        <v>185</v>
+      </c>
+      <c r="I40" s="7">
+        <v>191882</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M40" s="7">
+        <v>517</v>
+      </c>
+      <c r="N40" s="7">
+        <v>553924</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>210</v>
+      </c>
+      <c r="D41" s="7">
+        <v>227972</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H41" s="7">
+        <v>64</v>
+      </c>
+      <c r="I41" s="7">
+        <v>64201</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M41" s="7">
+        <v>274</v>
+      </c>
+      <c r="N41" s="7">
+        <v>292173</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>258</v>
+      </c>
+      <c r="D42" s="7">
+        <v>276320</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H42" s="7">
+        <v>58</v>
+      </c>
+      <c r="I42" s="7">
+        <v>59041</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M42" s="7">
+        <v>316</v>
+      </c>
+      <c r="N42" s="7">
+        <v>335362</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1314</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1411843</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>1011</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1035294</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2325</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2447137</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>248</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6388,8 +6846,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290BD222-30F7-49A6-A3E3-B09C7C8AC8C7}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0336C00A-E1F2-4746-96BC-C8343D25796E}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6405,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6509,46 +6967,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>6912</v>
+        <v>8334</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>30172</v>
+        <v>26839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>37084</v>
+        <v>35174</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,46 +7018,46 @@
         <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>11382</v>
+        <v>11317</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>6313</v>
+        <v>5618</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>17694</v>
+        <v>16935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,46 +7069,46 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>9732</v>
+        <v>8813</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>3317</v>
+        <v>2604</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>13050</v>
+        <v>11417</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,46 +7120,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>9575</v>
+        <v>11567</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>5515</v>
+        <v>4980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>15090</v>
+        <v>16547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,7 +7171,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>37601</v>
+        <v>40031</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -6728,7 +7186,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>45317</v>
+        <v>40041</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -6743,7 +7201,7 @@
         <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>82918</v>
+        <v>80072</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -6766,46 +7224,46 @@
         <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>75314</v>
+        <v>72975</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
       </c>
       <c r="I9" s="7">
-        <v>116984</v>
+        <v>107625</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
       </c>
       <c r="N9" s="7">
-        <v>192298</v>
+        <v>180600</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,46 +7275,46 @@
         <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>33176</v>
+        <v>33831</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>26475</v>
+        <v>23270</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>72</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>59650</v>
+        <v>57102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,46 +7326,46 @@
         <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>34794</v>
+        <v>34010</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>7144</v>
+        <v>5795</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>41939</v>
+        <v>39805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>527</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,46 +7377,46 @@
         <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>35118</v>
+        <v>34125</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>6850</v>
+        <v>5905</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
       </c>
       <c r="N12" s="7">
-        <v>41968</v>
+        <v>40030</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,7 +7428,7 @@
         <v>120</v>
       </c>
       <c r="D13" s="7">
-        <v>178402</v>
+        <v>174941</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6985,7 +7443,7 @@
         <v>152</v>
       </c>
       <c r="I13" s="7">
-        <v>157453</v>
+        <v>142596</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -7000,7 +7458,7 @@
         <v>272</v>
       </c>
       <c r="N13" s="7">
-        <v>335855</v>
+        <v>317537</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -7023,46 +7481,46 @@
         <v>101</v>
       </c>
       <c r="D14" s="7">
-        <v>109198</v>
+        <v>105295</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
       </c>
       <c r="I14" s="7">
-        <v>110862</v>
+        <v>103362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
       </c>
       <c r="N14" s="7">
-        <v>220059</v>
+        <v>208658</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,46 +7532,46 @@
         <v>60</v>
       </c>
       <c r="D15" s="7">
-        <v>61337</v>
+        <v>58805</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>544</v>
+        <v>295</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H15" s="7">
         <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>30949</v>
+        <v>28956</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M15" s="7">
         <v>105</v>
       </c>
       <c r="N15" s="7">
-        <v>92286</v>
+        <v>87761</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,46 +7583,46 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>32662</v>
+        <v>30944</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>12921</v>
+        <v>11738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>45582</v>
+        <v>42682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7634,13 @@
         <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>41928</v>
+        <v>40119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>563</v>
@@ -7191,7 +7649,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>15079</v>
+        <v>14070</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>564</v>
@@ -7206,7 +7664,7 @@
         <v>66</v>
       </c>
       <c r="N17" s="7">
-        <v>57007</v>
+        <v>54190</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>567</v>
@@ -7227,7 +7685,7 @@
         <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>245125</v>
+        <v>235164</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -7242,7 +7700,7 @@
         <v>244</v>
       </c>
       <c r="I18" s="7">
-        <v>169810</v>
+        <v>158127</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -7257,7 +7715,7 @@
         <v>482</v>
       </c>
       <c r="N18" s="7">
-        <v>414935</v>
+        <v>393291</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -7280,7 +7738,7 @@
         <v>106</v>
       </c>
       <c r="D19" s="7">
-        <v>110031</v>
+        <v>105290</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>570</v>
@@ -7295,7 +7753,7 @@
         <v>259</v>
       </c>
       <c r="I19" s="7">
-        <v>168885</v>
+        <v>156338</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>573</v>
@@ -7310,7 +7768,7 @@
         <v>365</v>
       </c>
       <c r="N19" s="7">
-        <v>278917</v>
+        <v>261629</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>576</v>
@@ -7331,7 +7789,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="7">
-        <v>77851</v>
+        <v>74580</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>579</v>
@@ -7346,31 +7804,31 @@
         <v>54</v>
       </c>
       <c r="I20" s="7">
-        <v>42749</v>
+        <v>63515</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>582</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M20" s="7">
         <v>133</v>
       </c>
       <c r="N20" s="7">
-        <v>120601</v>
+        <v>138095</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>585</v>
+        <v>301</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>586</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,46 +7840,46 @@
         <v>37</v>
       </c>
       <c r="D21" s="7">
-        <v>37579</v>
+        <v>35314</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>590</v>
+        <v>276</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
       </c>
       <c r="I21" s="7">
-        <v>8842</v>
+        <v>8315</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>591</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
       </c>
       <c r="N21" s="7">
-        <v>46421</v>
+        <v>43629</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>242</v>
+        <v>590</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>595</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,46 +7891,46 @@
         <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>98437</v>
+        <v>287758</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>598</v>
+        <v>16</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>13719</v>
+        <v>12328</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
       </c>
       <c r="N22" s="7">
-        <v>112156</v>
+        <v>300087</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,7 +7942,7 @@
         <v>270</v>
       </c>
       <c r="D23" s="7">
-        <v>323898</v>
+        <v>502942</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -7499,7 +7957,7 @@
         <v>349</v>
       </c>
       <c r="I23" s="7">
-        <v>234195</v>
+        <v>240497</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -7514,7 +7972,7 @@
         <v>619</v>
       </c>
       <c r="N23" s="7">
-        <v>558094</v>
+        <v>743440</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -7537,46 +7995,46 @@
         <v>75</v>
       </c>
       <c r="D24" s="7">
-        <v>71637</v>
+        <v>67567</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>438</v>
+        <v>601</v>
       </c>
       <c r="H24" s="7">
         <v>121</v>
       </c>
       <c r="I24" s="7">
-        <v>69605</v>
+        <v>64488</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>607</v>
+        <v>543</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="M24" s="7">
         <v>196</v>
       </c>
       <c r="N24" s="7">
-        <v>141242</v>
+        <v>132055</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,46 +8046,46 @@
         <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>33643</v>
+        <v>31333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
       </c>
       <c r="I25" s="7">
-        <v>15659</v>
+        <v>14421</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>71</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>610</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
       </c>
       <c r="N25" s="7">
-        <v>49302</v>
+        <v>45755</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,46 +8097,46 @@
         <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>24834</v>
+        <v>23297</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
       </c>
       <c r="I26" s="7">
-        <v>5686</v>
+        <v>5234</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>624</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
       </c>
       <c r="N26" s="7">
-        <v>30520</v>
+        <v>28531</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,46 +8148,46 @@
         <v>33</v>
       </c>
       <c r="D27" s="7">
-        <v>31998</v>
+        <v>29713</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>6353</v>
+        <v>5891</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="M27" s="7">
         <v>43</v>
       </c>
       <c r="N27" s="7">
-        <v>38350</v>
+        <v>35604</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,7 +8199,7 @@
         <v>170</v>
       </c>
       <c r="D28" s="7">
-        <v>162112</v>
+        <v>151910</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -7756,7 +8214,7 @@
         <v>168</v>
       </c>
       <c r="I28" s="7">
-        <v>97302</v>
+        <v>90035</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -7771,7 +8229,7 @@
         <v>338</v>
       </c>
       <c r="N28" s="7">
-        <v>259414</v>
+        <v>241945</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -7791,16 +8249,16 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>7548</v>
+        <v>5584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>199</v>
@@ -7809,31 +8267,31 @@
         <v>15</v>
       </c>
       <c r="I29" s="7">
-        <v>7956</v>
+        <v>7500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>199</v>
       </c>
       <c r="M29" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N29" s="7">
-        <v>15504</v>
+        <v>13083</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,37 +8312,37 @@
         <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>1229</v>
+        <v>1148</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>1229</v>
+        <v>1148</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7896,16 +8354,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7920,22 +8378,22 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,16 +8405,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7971,22 +8429,22 @@
         <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,10 +8453,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" s="7">
-        <v>8400</v>
+        <v>6410</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -8013,7 +8471,7 @@
         <v>17</v>
       </c>
       <c r="I33" s="7">
-        <v>9185</v>
+        <v>8648</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -8025,10 +8483,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N33" s="7">
-        <v>17585</v>
+        <v>15057</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -8042,55 +8500,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>347</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>380639</v>
+        <v>1598</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>660</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>662</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7">
-        <v>688</v>
-      </c>
-      <c r="I34" s="7">
-        <v>504463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>663</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>664</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>665</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
-        <v>1035</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>885102</v>
+        <v>1598</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>666</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>668</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,49 +8555,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>217389</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>669</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>451</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="H35" s="7">
-        <v>159</v>
-      </c>
-      <c r="I35" s="7">
-        <v>123373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>671</v>
+        <v>214</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>672</v>
+        <v>214</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>673</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>340763</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>674</v>
+        <v>198</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>675</v>
+        <v>210</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,49 +8604,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>140295</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>677</v>
+        <v>198</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>678</v>
+        <v>210</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="H36" s="7">
-        <v>50</v>
-      </c>
-      <c r="I36" s="7">
-        <v>37910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>680</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>681</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>682</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>178204</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>683</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>684</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>562</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,49 +8653,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>217216</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>685</v>
+        <v>210</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="H37" s="7">
-        <v>64</v>
-      </c>
-      <c r="I37" s="7">
-        <v>47515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>687</v>
+        <v>214</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>381</v>
+        <v>214</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="M37" s="7">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>264731</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>688</v>
+        <v>198</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>689</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>690</v>
+        <v>653</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,63 +8702,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>347</v>
+      </c>
+      <c r="D39" s="7">
+        <v>366644</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H39" s="7">
+        <v>688</v>
+      </c>
+      <c r="I39" s="7">
+        <v>466154</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1035</v>
+      </c>
+      <c r="N39" s="7">
+        <v>832798</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>205</v>
+      </c>
+      <c r="D40" s="7">
+        <v>209866</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="H40" s="7">
+        <v>159</v>
+      </c>
+      <c r="I40" s="7">
+        <v>136929</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="M40" s="7">
+        <v>364</v>
+      </c>
+      <c r="N40" s="7">
+        <v>346795</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>124</v>
+      </c>
+      <c r="D41" s="7">
+        <v>133041</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="H41" s="7">
+        <v>50</v>
+      </c>
+      <c r="I41" s="7">
+        <v>33687</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="M41" s="7">
+        <v>174</v>
+      </c>
+      <c r="N41" s="7">
+        <v>166728</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>157</v>
+      </c>
+      <c r="D42" s="7">
+        <v>403446</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="H42" s="7">
+        <v>64</v>
+      </c>
+      <c r="I42" s="7">
+        <v>43174</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="M42" s="7">
+        <v>221</v>
+      </c>
+      <c r="N42" s="7">
+        <v>446619</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>833</v>
       </c>
-      <c r="D38" s="7">
-        <v>955539</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1112997</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>961</v>
       </c>
-      <c r="I38" s="7">
-        <v>713261</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>679944</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>1794</v>
       </c>
-      <c r="N38" s="7">
-        <v>1668800</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>248</v>
+      <c r="N43" s="7">
+        <v>1792941</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
